--- a/interfaceTest-demo/doc/commonbiz.xlsx
+++ b/interfaceTest-demo/doc/commonbiz.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="commonbiz" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>公共业务api</t>
   </si>
@@ -245,13 +245,91 @@
     <t>head</t>
   </si>
   <si>
-    <t>error</t>
+    <t>errorHtml</t>
   </si>
   <si>
     <t>es-org-query-controller</t>
   </si>
   <si>
     <t>/es/org/queryName</t>
+  </si>
+  <si>
+    <t>综合管理平台首页接口</t>
+  </si>
+  <si>
+    <t>/synthHome/getProjectRisk</t>
+  </si>
+  <si>
+    <t>星睿：获取项目风险信息</t>
+  </si>
+  <si>
+    <t>/synthHome/getStandardInformation</t>
+  </si>
+  <si>
+    <t>二级投资:基准信息</t>
+  </si>
+  <si>
+    <t>/synthHome/getTheSamePeriodEarnings</t>
+  </si>
+  <si>
+    <t>二级投资同期收益信息</t>
+  </si>
+  <si>
+    <t>/synthHome/getXrProjectIndustryData</t>
+  </si>
+  <si>
+    <t>星睿：获取行业数据（饼图）</t>
+  </si>
+  <si>
+    <t>/synthHome/getXrProjectStageData</t>
+  </si>
+  <si>
+    <t>星睿：获取项目阶段数据（柱状图）</t>
+  </si>
+  <si>
+    <t>/synthHome/getZtProjectPropertyData</t>
+  </si>
+  <si>
+    <t>证投：获取项目属性数据（饼图）</t>
+  </si>
+  <si>
+    <t>/synthHome/getZtProjectStageData</t>
+  </si>
+  <si>
+    <t>证投：获取项目阶段数据（柱状图）</t>
+  </si>
+  <si>
+    <t>大宽表（O321 TO ODAS）接口</t>
+  </si>
+  <si>
+    <t>/widePositionTable/bondIndex</t>
+  </si>
+  <si>
+    <t>债券指数</t>
+  </si>
+  <si>
+    <t>/widePositionTable/hkStockMarket</t>
+  </si>
+  <si>
+    <t>港股行情</t>
+  </si>
+  <si>
+    <t>/widePositionTable/holdMaktValueTop5</t>
+  </si>
+  <si>
+    <t>持仓排名TOP5</t>
+  </si>
+  <si>
+    <t>/widePositionTable/positionEarnings</t>
+  </si>
+  <si>
+    <t>持仓收益</t>
+  </si>
+  <si>
+    <t>/widePositionTable/thisYearProfitTop5</t>
+  </si>
+  <si>
+    <t>收益排名TOP5</t>
   </si>
 </sst>
 </file>
@@ -296,18 +374,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -600,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,7 +1482,211 @@
         <v>66</v>
       </c>
     </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>